--- a/GWP_comparison_results.xlsx
+++ b/GWP_comparison_results.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Detailed Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +457,283 @@
           <t>Original (1)</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>16847.18741790294</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4,809.28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alternative 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12,035.54</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+150.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Alternative 2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3,557.35</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-26.03</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IFC material</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EPD name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GWP per EPD unit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Layer thickness [m]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GWP_total (kg CO2-eq)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Original (1)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DTU_Wood_VerticalLamella_Painted_Black_Mat</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Konstruktionstræ af nåletræ, utørret og opsavet (Forbrænding EoL)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1292.400311122558</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Original (1)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Structure, Wood Joist/Rafter per 600mm, Air (+50mm)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Letklinkerblok med grå EPS isolering</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>3516.879726626704</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Alternative 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DTU_Wood_VerticalLamella_Painted_Black_Mat</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fabriksbeton C35/45 – CEM I SR-5</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>414.91</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11916.21806861912</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Alternative 1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Structure, Wood Joist/Rafter per 600mm, Air (+50mm)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rektangulære ventilationskanaler af galvaniseret stål</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.154699999999999</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G5" t="n">
+        <v>119.3230127249087</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Alternative 2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DTU_Wood_VerticalLamella_Painted_Black_Mat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Porebeton, isoleringsplade</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>111.0949541284404</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3190.647850660948</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Alternative 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Structure, Wood Joist/Rafter per 600mm, Air (+50mm)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Akustikpanel, træbeton, umalet</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>12.76825</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G7" t="n">
+        <v>366.7042282775689</v>
       </c>
     </row>
   </sheetData>
